--- a/docs/StructureDefinition-test-obs.xlsx
+++ b/docs/StructureDefinition-test-obs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -159,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -472,10 +472,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -518,35 +515,53 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>Name
+Test NameObservation Identifer</t>
+  </si>
+  <si>
+    <t>Laboratory Test Name</t>
+  </si>
+  <si>
+    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
+  </si>
+  <si>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>LOINC codes</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -573,7 +588,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -758,10 +773,10 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>Result Value</t>
+  </si>
+  <si>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD** be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults) if the concept exists. If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -770,8 +785,12 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+us-core-2us-core-3us-core-4</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -802,17 +821,11 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+us-core-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -891,6 +904,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1267,6 +1283,9 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
@@ -1277,6 +1296,9 @@
     <t>Actual component result</t>
   </si>
   <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1294,6 +1316,13 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1454,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1496,7 +1525,7 @@
     <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="28.61328125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
@@ -3035,7 +3064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>139</v>
       </c>
@@ -3051,7 +3080,7 @@
         <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>56</v>
@@ -3099,11 +3128,9 @@
       <c r="W14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="X14" s="2"/>
+      <c r="Y14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3136,19 +3163,19 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3156,7 +3183,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3164,13 +3191,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>45</v>
@@ -3179,19 +3206,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3219,28 +3246,26 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3264,22 +3289,24 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3289,28 +3316,28 @@
         <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3320,7 +3347,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3335,13 +3362,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3359,13 +3386,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3374,41 +3401,41 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
@@ -3417,19 +3444,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3454,13 +3481,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3478,10 +3505,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3493,27 +3520,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3521,13 +3548,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>45</v>
@@ -3536,18 +3563,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3595,13 +3624,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3610,19 +3639,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3630,18 +3659,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3653,20 +3682,18 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3714,13 +3741,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3729,31 +3756,31 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3763,7 +3790,7 @@
         <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>45</v>
@@ -3772,19 +3799,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3833,7 +3860,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3842,37 +3869,37 @@
         <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3882,7 +3909,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -3891,18 +3918,20 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3950,7 +3979,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3959,25 +3988,25 @@
         <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3985,7 +4014,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3996,7 +4025,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4008,18 +4037,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4067,13 +4096,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4082,19 +4111,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4102,7 +4131,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4113,7 +4142,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4125,19 +4154,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4186,42 +4213,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4235,28 +4262,28 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4281,13 +4308,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4305,7 +4332,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4314,47 +4341,47 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4363,19 +4390,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4400,13 +4427,11 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4424,16 +4449,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4442,28 +4467,28 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4482,19 +4507,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4519,13 +4544,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4543,7 +4568,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4561,24 +4586,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4589,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4601,18 +4626,20 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4636,13 +4663,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4660,13 +4687,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4678,24 +4705,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4718,20 +4745,18 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4755,13 +4780,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4779,7 +4804,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4797,24 +4822,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4837,18 +4862,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4872,13 +4899,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4896,7 +4923,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4914,24 +4941,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4954,16 +4981,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5013,7 +5040,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5031,24 +5058,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5059,7 +5086,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5071,20 +5098,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5132,42 +5157,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5178,7 +5203,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5190,16 +5215,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5247,19 +5276,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5268,10 +5297,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5282,18 +5311,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5305,17 +5334,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5364,31 +5391,31 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5403,7 +5430,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5416,26 +5443,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>331</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5483,7 +5508,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5507,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5518,39 +5543,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5598,19 +5627,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5619,10 +5648,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5633,7 +5662,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5656,13 +5685,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5713,7 +5742,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5722,7 +5751,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5734,10 +5763,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5748,7 +5777,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5771,20 +5800,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5808,13 +5833,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5832,7 +5857,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5841,7 +5866,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5850,13 +5875,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5867,7 +5892,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5878,7 +5903,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5890,19 +5915,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5927,13 +5952,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5951,13 +5976,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5969,13 +5994,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5986,7 +6011,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5997,7 +6022,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6009,17 +6034,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6044,13 +6071,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6068,13 +6095,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6086,13 +6113,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6103,7 +6130,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6126,16 +6153,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6183,7 +6212,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6204,10 +6233,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6218,7 +6247,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6229,7 +6258,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6238,20 +6267,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6300,13 +6327,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6321,10 +6348,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6335,7 +6362,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6358,16 +6385,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6417,7 +6444,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6438,10 +6465,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6452,7 +6479,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6475,20 +6502,18 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6536,7 +6561,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6557,10 +6582,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6571,7 +6596,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6582,7 +6607,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6591,19 +6616,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6651,19 +6680,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6672,10 +6701,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6686,18 +6715,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6709,17 +6738,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6768,31 +6795,31 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6803,11 +6830,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6820,26 +6847,24 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6887,7 +6912,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6911,7 +6936,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6922,42 +6947,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6982,13 +7007,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7006,34 +7031,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7041,7 +7066,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7049,7 +7074,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7064,19 +7089,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7101,13 +7126,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7125,10 +7150,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7146,16 +7171,16 @@
         <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7180,10 +7205,10 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>404</v>
@@ -7195,7 +7220,7 @@
         <v>406</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7220,13 +7245,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7253,7 +7278,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7262,35 +7287,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7302,19 +7327,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>258</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>259</v>
+        <v>411</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7339,13 +7364,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7363,16 +7388,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7381,28 +7406,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7421,19 +7446,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>409</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7458,13 +7483,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7482,7 +7507,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7500,23 +7525,142 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7526,7 +7670,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
